--- a/data/trans_bre/POLIPATOLOGIA_2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_2-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.852910457114787</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.2027924220281</v>
+        <v>9.202792422028089</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4278554536586991</v>
@@ -649,7 +649,7 @@
         <v>0.08055209786239458</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3014902960521509</v>
+        <v>0.3014902960521506</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8755259260908612</v>
+        <v>0.8716651270852176</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.567207233864739</v>
+        <v>-4.183206665342988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.057466690164529</v>
+        <v>-3.900241922223854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.637198875355856</v>
+        <v>3.497763062368153</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05603218187789073</v>
+        <v>0.04345612702028175</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1997138924357694</v>
+        <v>-0.2027908144740452</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1917039929487661</v>
+        <v>-0.1574463438737914</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1041983095493076</v>
+        <v>0.1091720675083145</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.55610166047499</v>
+        <v>12.40317807058514</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.931250431438381</v>
+        <v>8.29146323419519</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.44780339257486</v>
+        <v>8.61978265096047</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.87782423151164</v>
+        <v>14.74995134937524</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9476998583963333</v>
+        <v>0.9534845037261735</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4661275552376339</v>
+        <v>0.4882529750697983</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3978312668353842</v>
+        <v>0.4248721837577245</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5236475785392282</v>
+        <v>0.5384921152424306</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.049372622978273</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.001234289821346</v>
+        <v>8.00123428982134</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6470692195476407</v>
@@ -749,7 +749,7 @@
         <v>0.04956851569154309</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2436234277871246</v>
+        <v>0.2436234277871244</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.609119153252612</v>
+        <v>4.228616675884032</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4987981706290713</v>
+        <v>0.8708439899380239</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.088062773059955</v>
+        <v>-5.186931065875897</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.702687982720252</v>
+        <v>1.615878745190945</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1985098153245117</v>
+        <v>0.23893404127728</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02238872243582185</v>
+        <v>0.03436997964788919</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2185553242563103</v>
+        <v>-0.2095125264400668</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.04942938526347588</v>
+        <v>0.04645065829211894</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.57307767566805</v>
+        <v>16.11084510794151</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.10686039195918</v>
+        <v>13.89632972984601</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.108388474818312</v>
+        <v>7.475854867278023</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.14518243804505</v>
+        <v>13.83991313253021</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.273997163685434</v>
+        <v>1.402642316357934</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7424979269435159</v>
+        <v>0.8028167232298153</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4028033627247002</v>
+        <v>0.408268549084898</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4770419692632917</v>
+        <v>0.4622226125578129</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>8.506878907413951</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19.83853257005782</v>
+        <v>19.83853257005783</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.476073306099227</v>
@@ -849,7 +849,7 @@
         <v>0.3114805887245313</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.5590924525465532</v>
+        <v>0.5590924525465537</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.453847246180283</v>
+        <v>2.54610438304756</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7131106545546898</v>
+        <v>-1.151744442424543</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2037389245703078</v>
+        <v>0.03610897359593265</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11.70337267057467</v>
+        <v>12.84781958983003</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.09571145520032313</v>
+        <v>0.1069991560932865</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02009898866808526</v>
+        <v>-0.03591672150678487</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.00753493765609966</v>
+        <v>0.00168821146300865</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3003555163245006</v>
+        <v>0.3392397961621415</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.98004817616494</v>
+        <v>18.84549829041092</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.90824792618679</v>
+        <v>14.01077179671955</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.70449416424852</v>
+        <v>17.48203005998313</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27.02004877553263</v>
+        <v>26.9796281858041</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9094436160230107</v>
+        <v>0.9157624079843254</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5544321301287205</v>
+        <v>0.507028752704151</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7042008357789037</v>
+        <v>0.7057995493411634</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.839172442379669</v>
+        <v>0.8465657574092244</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.2640878898093832</v>
+        <v>-0.3150993764451983</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.329462482357119</v>
+        <v>-3.302216224614245</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.9573798261873329</v>
+        <v>-1.280834124658535</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.430222562438923</v>
+        <v>3.591594436198131</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.01293774519665475</v>
+        <v>-0.01281532848968875</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1131316889931967</v>
+        <v>-0.1105220979648037</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03547230683954021</v>
+        <v>-0.0474277463899483</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09526256049903474</v>
+        <v>0.0960391532065616</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.80108215161168</v>
+        <v>7.281637043851806</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.294461707279097</v>
+        <v>5.515371649605621</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.138883971573794</v>
+        <v>6.986577024672429</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.58930472157988</v>
+        <v>12.11170865588787</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3294233827658439</v>
+        <v>0.3029094604316896</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2004824363375007</v>
+        <v>0.206492312443589</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2969700078341826</v>
+        <v>0.2901935431577894</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3592936418653235</v>
+        <v>0.3726116408262338</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>16.87531915328884</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20.73354916049571</v>
+        <v>20.73354916049572</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6123032649128144</v>
@@ -1049,7 +1049,7 @@
         <v>0.58241617094565</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.6182049490712649</v>
+        <v>0.6182049490712652</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.589361591238831</v>
+        <v>6.938164940086662</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16.8943198075116</v>
+        <v>16.22304141684661</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11.70169966696657</v>
+        <v>11.72170475816134</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15.62062266458351</v>
+        <v>15.47862369070967</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2575243745973433</v>
+        <v>0.2808951143326479</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6088224204865618</v>
+        <v>0.6244199280510138</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3677624028951429</v>
+        <v>0.3755729911503283</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.4117215496736558</v>
+        <v>0.4121459600795969</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.81166248072923</v>
+        <v>18.36308864835981</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>27.56983489998763</v>
+        <v>27.36003054669061</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21.66060948964044</v>
+        <v>22.21715618383367</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25.59346777190433</v>
+        <v>25.49536335497505</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.040843162890416</v>
+        <v>1.006216617098251</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.302578224117175</v>
+        <v>1.3225343143218</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8247532478844959</v>
+        <v>0.8492023768164286</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8539249466332529</v>
+        <v>0.8461196570786682</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>38.07380055457843</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30.60277545484238</v>
+        <v>30.60277545484237</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>12.30611317444418</v>
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>34.46534829556913</v>
+        <v>34.85538906400446</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>37.07675779098494</v>
+        <v>37.51119521936491</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33.74409313369608</v>
+        <v>33.70316511639604</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22.11918966795296</v>
+        <v>21.48272874317472</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>6.167060488799357</v>
+        <v>6.615871403673451</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>3.423779583558774</v>
+        <v>3.717727977495121</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>3.870959027273702</v>
+        <v>4.05817284055006</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.9485729826102868</v>
+        <v>0.9150416192715666</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>41.44366915479375</v>
+        <v>41.68041329049198</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>46.54474837337951</v>
+        <v>46.11284461956873</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>41.90848289601249</v>
+        <v>42.10810472200477</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>37.65075057428643</v>
+        <v>37.60623347184177</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>25.89582282944469</v>
+        <v>26.10598334152722</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>11.8535798050137</v>
+        <v>12.62884691012558</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>12.39946136401721</v>
+        <v>12.8642047360887</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.846582702274672</v>
+        <v>3.938292997451034</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>12.11070306353886</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13.82744929081216</v>
+        <v>13.82744929081215</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6940748733188914</v>
@@ -1249,7 +1249,7 @@
         <v>0.5064606346873403</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4268609945790097</v>
+        <v>0.4268609945790095</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>11.66548143822649</v>
+        <v>11.81447121271926</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>12.00425154173495</v>
+        <v>12.21444960899712</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9.899735386187485</v>
+        <v>9.84210854783662</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11.45160060845229</v>
+        <v>11.48804995911014</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5673276169077188</v>
+        <v>0.5701126112077178</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4663267321044928</v>
+        <v>0.4851825867319948</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3886974001124708</v>
+        <v>0.3926372796592614</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3394817315595308</v>
+        <v>0.3400869838603638</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.83310819654521</v>
+        <v>16.05123610153591</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.77603026291468</v>
+        <v>16.78534926848628</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.4833795340656</v>
+        <v>14.13130922022281</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15.91052861680129</v>
+        <v>16.06408534529029</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.849635299360837</v>
+        <v>0.8547994909465214</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7214913412416224</v>
+        <v>0.7313238138470917</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6266147402791278</v>
+        <v>0.6177536784329088</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5098175011459091</v>
+        <v>0.5207664740753822</v>
       </c>
     </row>
     <row r="25">
